--- a/notebooks/output/management2.xlsx
+++ b/notebooks/output/management2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="167">
   <si>
     <t>Management</t>
   </si>
@@ -80,15 +80,15 @@
     <t>SisGExp</t>
   </si>
   <si>
+    <t>SPADE</t>
+  </si>
+  <si>
     <t>StarFlow</t>
   </si>
   <si>
     <t>Sumatra</t>
   </si>
   <si>
-    <t>Tariq, Ali, and Gehani</t>
-  </si>
-  <si>
     <t>Variolite</t>
   </si>
   <si>
@@ -116,18 +116,21 @@
     <t>Proprietary</t>
   </si>
   <si>
+    <t>✗</t>
+  </si>
+  <si>
+    <t>Relational Database (MySQL, PostgreSQL), Graph Database (4store)</t>
+  </si>
+  <si>
+    <t>Memory</t>
+  </si>
+  <si>
+    <t>VCS, Proprietary (CSV)</t>
+  </si>
+  <si>
     <t>NoSQL (XML Server)</t>
   </si>
   <si>
-    <t>Relational Database (MySQL, PostgreSQL), Graph Database (4store)</t>
-  </si>
-  <si>
-    <t>Memory</t>
-  </si>
-  <si>
-    <t>VCS, Proprietary (CSV)</t>
-  </si>
-  <si>
     <t>Relational Database (MySQL), Content Database</t>
   </si>
   <si>
@@ -152,72 +155,75 @@
     <t>Proprietary (HDF5)</t>
   </si>
   <si>
-    <t>Graph File (DDG), Proprietary</t>
-  </si>
-  <si>
-    <t>NoSQL (MongoDB)</t>
+    <t>Interoperable Format (PROV)</t>
+  </si>
+  <si>
+    <t>Relational Database, NoSQL (MongoDB), Proprietary (JSON)</t>
   </si>
   <si>
     <t>Content Database, Relational Database (PostgreSQL)</t>
   </si>
   <si>
+    <t>Relational Database (Postgres, MySQL, H2), Graph Database (Neo4j), Interoperable Format (PROV), Proprietary (Text), Logic File (Datalog), Graph File (GraphViz)</t>
+  </si>
+  <si>
     <t>Interoperable Format (OPM), Proprietary (XML, CSV)</t>
   </si>
   <si>
     <t>VCS, Relational Database (SQLite)</t>
   </si>
   <si>
-    <t>Proprietary (SPADE)</t>
-  </si>
-  <si>
     <t>Proprietary (JSON)</t>
   </si>
   <si>
+    <t>Relational Database (SQLite), Content Database, Proprietary (Dict)</t>
+  </si>
+  <si>
+    <t>Graph File (GraphML)</t>
+  </si>
+  <si>
+    <t>Interoperable Format (PROV), Logic File (Datalog), Graph File (GraphViz)</t>
+  </si>
+  <si>
+    <t>Relational Database (SQLite), Content Database, Logic File (Datalog), Graph File (GraphViz)</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>Proprietary, Source</t>
+  </si>
+  <si>
+    <t>Web (PReServ)</t>
+  </si>
+  <si>
+    <t>Version Control System, Proprietary (CSV)</t>
+  </si>
+  <si>
+    <t>Graph File (GraphML, GraphViz)</t>
+  </si>
+  <si>
+    <t>Graph File (GraphViz)</t>
+  </si>
+  <si>
+    <t>Proprietary (INPWR), Interoperable Format (PROV), Source (Blockly)</t>
+  </si>
+  <si>
+    <t>Content Database, Logic File (Prolog)</t>
+  </si>
+  <si>
+    <t>Repository</t>
+  </si>
+  <si>
+    <t>Web (Apache Kafka), Interoperable Format (PROV), Proprietary (Text), Logic File (Datalog), Graph File (GraphViz)</t>
+  </si>
+  <si>
+    <t>Version Control System</t>
+  </si>
+  <si>
     <t>Content Database, Proprietary (Dict)</t>
   </si>
   <si>
-    <t>Graph File (GraphML)</t>
-  </si>
-  <si>
-    <t>Interoperable Format (PROV), Logic File (Datalog), Graph File (GraphViz)</t>
-  </si>
-  <si>
-    <t>Relational Database (SQLite), Content Database, Logic File (Datalog), Graph File (GraphViz)</t>
-  </si>
-  <si>
-    <t>Distribution</t>
-  </si>
-  <si>
-    <t>✗</t>
-  </si>
-  <si>
-    <t>Proprietary, Source</t>
-  </si>
-  <si>
-    <t>Version Control System, Proprietary (CSV)</t>
-  </si>
-  <si>
-    <t>Graph File (GraphML, GraphViz)</t>
-  </si>
-  <si>
-    <t>Graph File (GraphViz)</t>
-  </si>
-  <si>
-    <t>Proprietary (INPWR), Interoperable Format (PROV), Source (Blockly)</t>
-  </si>
-  <si>
-    <t>Content Database, Logic File (Prolog)</t>
-  </si>
-  <si>
-    <t>Repository</t>
-  </si>
-  <si>
-    <t>Version Control System</t>
-  </si>
-  <si>
-    <t>Proprietary (SPADE), Interoperable Format (OPM)</t>
-  </si>
-  <si>
     <t>Logic File (Datalog), Graph File (GraphViz)</t>
   </si>
   <si>
@@ -230,9 +236,6 @@
     <t>Trial Identification</t>
   </si>
   <si>
-    <t>Uses VCS</t>
-  </si>
-  <si>
     <t>*ID</t>
   </si>
   <si>
@@ -260,9 +263,6 @@
     <t>Process View (Statements)</t>
   </si>
   <si>
-    <t>Combined View (Orbiter)</t>
-  </si>
-  <si>
     <t>Data View</t>
   </si>
   <si>
@@ -272,223 +272,220 @@
     <t>Combined View (GraphViz)</t>
   </si>
   <si>
-    <t>Interoperable Format (PROV)</t>
-  </si>
-  <si>
     <t>Log View, Combined View (GraphViz), Process View (Activation graph with summarizations that group activations and hide variables)</t>
   </si>
   <si>
     <t>Combined View (with graph compression re-write rules)</t>
   </si>
   <si>
-    <t>Combined View (DDG), Proprietary</t>
+    <t>Combined View (DDG)</t>
   </si>
   <si>
     <t>Log View</t>
   </si>
   <si>
+    <t>Proprietary (SPADE), Interoperable Format (PROV), Combined View</t>
+  </si>
+  <si>
+    <t>Process View (GraphML, GraphViz, ProtocolDB)</t>
+  </si>
+  <si>
+    <t>Interoperable Format (PROV), Combined View (GraphViz), Process View (GraphViz), Data View (GraphViz)</t>
+  </si>
+  <si>
+    <t>Summarization</t>
+  </si>
+  <si>
+    <t>Clustering (Combines all data accesses in nodes)</t>
+  </si>
+  <si>
+    <t>Clustering (Group Activations), Filtering (Hide Variables)</t>
+  </si>
+  <si>
+    <t>Clustering (Graph compression re-write rules)</t>
+  </si>
+  <si>
+    <t>Filtering, Clustering</t>
+  </si>
+  <si>
+    <t>Clustering (Combine processes)</t>
+  </si>
+  <si>
+    <t>Filtering</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>Query (SQL), Functions, Web</t>
+  </si>
+  <si>
+    <t>Functions (Command Provenance, Data Provenance)</t>
+  </si>
+  <si>
+    <t>Query (XQuery, XPath), Web (SOAP messages)</t>
+  </si>
+  <si>
+    <t>Query (SPARQL, SQL, Web), Functions</t>
+  </si>
+  <si>
+    <t>Query (XQuery)</t>
+  </si>
+  <si>
+    <t>Web, Query (SQL)</t>
+  </si>
+  <si>
+    <t>Query (SQL, Prolog, Python), Functions, Web (Jupyter, NowVis)</t>
+  </si>
+  <si>
+    <t>Functions (Input values and debug model), Query (SQL)</t>
+  </si>
+  <si>
+    <t>PROV, Function Calls, Proprietary (DDG)</t>
+  </si>
+  <si>
+    <t>Web, Query (SQL, Prolog, Python)</t>
+  </si>
+  <si>
+    <t>Query (SQL), Web</t>
+  </si>
+  <si>
+    <t>Functions (Navigation, Cache), Interoperable Format (OPM)</t>
+  </si>
+  <si>
+    <t>Command (Annotations), Query (SQL), Web (Textual listing)</t>
+  </si>
+  <si>
+    <t>Command</t>
+  </si>
+  <si>
+    <t>Web (Links)</t>
+  </si>
+  <si>
+    <t>Functions</t>
+  </si>
+  <si>
+    <t>Interoperable Format (PROV), Query (Datalog)</t>
+  </si>
+  <si>
+    <t>Query (Datalog)</t>
+  </si>
+  <si>
+    <t>Comparison</t>
+  </si>
+  <si>
+    <t>[Provenance]</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[VCS]</t>
+  </si>
+  <si>
+    <t>[Provenance, cache]</t>
+  </si>
+  <si>
+    <t>[VCS, Provenance]</t>
+  </si>
+  <si>
+    <t>Arnold</t>
+  </si>
+  <si>
+    <t>Burrito</t>
+  </si>
+  <si>
+    <t>CARE</t>
+  </si>
+  <si>
+    <t>CDE</t>
+  </si>
+  <si>
+    <t>DataTracker</t>
+  </si>
+  <si>
+    <t>Garm</t>
+  </si>
+  <si>
+    <t>Gessiou et al.</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>PTU</t>
+  </si>
+  <si>
+    <t>ReproZip</t>
+  </si>
+  <si>
+    <t>Story Book</t>
+  </si>
+  <si>
+    <t>TREC</t>
+  </si>
+  <si>
+    <t>Zhang et al.</t>
+  </si>
+  <si>
+    <t>Log (Compressed with GZIP)</t>
+  </si>
+  <si>
+    <t>File System (NILFS), NoSQL (MongoDB)</t>
+  </si>
+  <si>
+    <t>Package (Self-Contained)</t>
+  </si>
+  <si>
+    <t>Package (File System)</t>
+  </si>
+  <si>
+    <t>Log (Raw)</t>
+  </si>
+  <si>
+    <t>Shadow Files</t>
+  </si>
+  <si>
+    <t>Key-Value Database (BerkeleyDB (v1)), File System (Layering system (v2)), Log (Log format (v2))</t>
+  </si>
+  <si>
+    <t>Package (File System), Relational Database (SQLite)</t>
+  </si>
+  <si>
+    <t>Package (Extractable), NoSQL (MongoDB (beta)), Relational Database (SQLite (1.x))</t>
+  </si>
+  <si>
+    <t>Log (Stasis), Key-Value Database (BerkeleyDB)</t>
+  </si>
+  <si>
+    <t>Database (?)</t>
+  </si>
+  <si>
+    <t>Relational Database</t>
+  </si>
+  <si>
+    <t>Log (Lab Notebook HTML)</t>
+  </si>
+  <si>
+    <t>Interoperable Format (PROV), Log (Raw)</t>
+  </si>
+  <si>
+    <t>Interoperable Format (OPM)</t>
+  </si>
+  <si>
+    <t>Interoperable Format (OPM), Package (File System)</t>
+  </si>
+  <si>
+    <t>Package (Extractable), Proprietary (VisTrails)</t>
+  </si>
+  <si>
+    <t>*previous</t>
+  </si>
+  <si>
+    <t>Log View (Activity Feed), Combined View</t>
+  </si>
+  <si>
     <t>Combined View, Interoperable Format (OPM)</t>
-  </si>
-  <si>
-    <t>Proprietary (SPADE), Interoperable Format (OPM), Combined View</t>
-  </si>
-  <si>
-    <t>Process View (GraphML, GraphViz, ProtocolDB)</t>
-  </si>
-  <si>
-    <t>Interoperable Format (PROV), Combined View (GraphViz), Process View (GraphViz), Data View (GraphViz)</t>
-  </si>
-  <si>
-    <t>Summarization</t>
-  </si>
-  <si>
-    <t>Clustering (Combines all data accesses in nodes)</t>
-  </si>
-  <si>
-    <t>Clustering (Group Activations), Filtering (Hide Variables)</t>
-  </si>
-  <si>
-    <t>Clustering (Graph compression re-write rules)</t>
-  </si>
-  <si>
-    <t>Filtering (annotations), Clustering (manual)</t>
-  </si>
-  <si>
-    <t>Clustering (Combine processes)</t>
-  </si>
-  <si>
-    <t>Filtering</t>
-  </si>
-  <si>
-    <t>Query</t>
-  </si>
-  <si>
-    <t>Query (SQL), Functions, Web</t>
-  </si>
-  <si>
-    <t>Functions (Command Provenance, Data Provenance)</t>
-  </si>
-  <si>
-    <t>Query (XQuery, XPath), Web (SOAP messages)</t>
-  </si>
-  <si>
-    <t>Query (SPARQL, SQL)</t>
-  </si>
-  <si>
-    <t>Query (XQuery)</t>
-  </si>
-  <si>
-    <t>Web, Query (SQL)</t>
-  </si>
-  <si>
-    <t>Query (SQL, Prolog, Python), Functions, Web (Jupyter, NowVis)</t>
-  </si>
-  <si>
-    <t>Functions (Input values and debug model), Query (SQL)</t>
-  </si>
-  <si>
-    <t>Proprietary (DDG)</t>
-  </si>
-  <si>
-    <t>Web</t>
-  </si>
-  <si>
-    <t>Query (SQL), Web</t>
-  </si>
-  <si>
-    <t>Functions (Navigation, Cache), Interoperable Format (OPM)</t>
-  </si>
-  <si>
-    <t>Command (Annotations), Query (SQL), Web (Textual listing)</t>
-  </si>
-  <si>
-    <t>Interoperable Format (OPM)</t>
-  </si>
-  <si>
-    <t>Command</t>
-  </si>
-  <si>
-    <t>Web (Links)</t>
-  </si>
-  <si>
-    <t>Functions</t>
-  </si>
-  <si>
-    <t>Interoperable Format (PROV), Query (Datalog)</t>
-  </si>
-  <si>
-    <t>Query (Datalog)</t>
-  </si>
-  <si>
-    <t>Comparison</t>
-  </si>
-  <si>
-    <t>[Provenance]</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>[VCS]</t>
-  </si>
-  <si>
-    <t>[Provenance, cache]</t>
-  </si>
-  <si>
-    <t>[VCS, Provenance]</t>
-  </si>
-  <si>
-    <t>Arnold</t>
-  </si>
-  <si>
-    <t>Burrito</t>
-  </si>
-  <si>
-    <t>CARE</t>
-  </si>
-  <si>
-    <t>CDE</t>
-  </si>
-  <si>
-    <t>DataTracker</t>
-  </si>
-  <si>
-    <t>Garm</t>
-  </si>
-  <si>
-    <t>Gessiou et al.</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>PTU</t>
-  </si>
-  <si>
-    <t>ReproZip</t>
-  </si>
-  <si>
-    <t>Story Book</t>
-  </si>
-  <si>
-    <t>TREC</t>
-  </si>
-  <si>
-    <t>Zhang et al.</t>
-  </si>
-  <si>
-    <t>Log (Compressed with GZIP)</t>
-  </si>
-  <si>
-    <t>File System (NILFS), NoSQL (MongoDB)</t>
-  </si>
-  <si>
-    <t>Package (Self-Contained)</t>
-  </si>
-  <si>
-    <t>Package (File System)</t>
-  </si>
-  <si>
-    <t>Log (Raw)</t>
-  </si>
-  <si>
-    <t>Shadow Files</t>
-  </si>
-  <si>
-    <t>Key-Value Database (BerkeleyDB (v1)), File System (Layering system (v2)), Log (Log format (v2))</t>
-  </si>
-  <si>
-    <t>Package (File System), Relational Database (SQLite)</t>
-  </si>
-  <si>
-    <t>Package (Extractable), NoSQL (MongoDB (beta)), Relational Database (SQLite (1.x))</t>
-  </si>
-  <si>
-    <t>Log (Stasis), Key-Value Database (BerkeleyDB)</t>
-  </si>
-  <si>
-    <t>Database (?)</t>
-  </si>
-  <si>
-    <t>Relational Database</t>
-  </si>
-  <si>
-    <t>Log (Lab Notebook HTML)</t>
-  </si>
-  <si>
-    <t>Interoperable Format (PROV), Log (Raw)</t>
-  </si>
-  <si>
-    <t>Interoperable Format (OPM), Package (File System)</t>
-  </si>
-  <si>
-    <t>Package (Extractable), Proprietary (VisTrails)</t>
-  </si>
-  <si>
-    <t>*previous</t>
-  </si>
-  <si>
-    <t>Log View (Activity Feed), Combined View</t>
   </si>
   <si>
     <t>Process View (VisTrails)</t>
@@ -913,22 +910,22 @@
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -939,22 +936,22 @@
         <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -968,19 +965,19 @@
         <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -991,22 +988,22 @@
         <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1017,22 +1014,22 @@
         <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E6" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1043,22 +1040,22 @@
         <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1069,7 +1066,7 @@
         <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
         <v>71</v>
@@ -1078,13 +1075,13 @@
         <v>82</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1092,25 +1089,25 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
         <v>83</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="G9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1118,25 +1115,25 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E10" t="s">
         <v>84</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="G10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1144,25 +1141,25 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="H11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1170,25 +1167,25 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="G12" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="H12" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1196,25 +1193,25 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="G13" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="H13" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1222,25 +1219,25 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="G14" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1248,25 +1245,25 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H15" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1274,25 +1271,25 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H16" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1300,25 +1297,25 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E17" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="G17" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="H17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1326,25 +1323,25 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1352,25 +1349,25 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F19" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="G19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H19" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1378,25 +1375,25 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="E20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F20" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="G20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1404,25 +1401,25 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="E21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F21" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="G21" t="s">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1430,25 +1427,25 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="E22" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="F22" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H22" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1456,22 +1453,22 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="E23" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F23" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="G23" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H23" t="s">
         <v>123</v>
@@ -1482,25 +1479,25 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F24" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="G24" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H24" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1508,25 +1505,25 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="E25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F25" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="G25" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H25" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1534,25 +1531,25 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E26" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="F26" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="G26" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H26" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1560,25 +1557,25 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D27" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="E27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G27" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="H27" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1586,25 +1583,25 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D28" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="E28" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F28" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="G28" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H28" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1612,25 +1609,25 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D29" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="E29" t="s">
         <v>84</v>
       </c>
       <c r="F29" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G29" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1677,360 +1674,360 @@
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="G9" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C10" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="D10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E10" t="s">
         <v>156</v>
       </c>
-      <c r="E10" t="s">
-        <v>90</v>
-      </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="G10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="G12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="G13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="G14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B15" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2038,25 +2035,25 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="E16" t="s">
         <v>83</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="G16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H16" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/output/management2.xlsx
+++ b/notebooks/output/management2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="168">
   <si>
     <t>Management</t>
   </si>
@@ -341,7 +341,7 @@
     <t>Functions (Input values and debug model), Query (SQL)</t>
   </si>
   <si>
-    <t>PROV, Function Calls, Proprietary (DDG)</t>
+    <t>Interoperable Format (PROV), Functions, Proprietary (DDG)</t>
   </si>
   <si>
     <t>Web, Query (SQL, Prolog, Python)</t>
@@ -350,6 +350,9 @@
     <t>Query (SQL), Web</t>
   </si>
   <si>
+    <t>Query (SQL, Cypher, Datalog), Interoperable Format (PROV)</t>
+  </si>
+  <si>
     <t>Functions (Navigation, Cache), Interoperable Format (OPM)</t>
   </si>
   <si>
@@ -362,7 +365,7 @@
     <t>Web (Links)</t>
   </si>
   <si>
-    <t>Functions</t>
+    <t>Functions, Query (SQL)</t>
   </si>
   <si>
     <t>Interoperable Format (PROV), Query (Datalog)</t>
@@ -925,7 +928,7 @@
         <v>99</v>
       </c>
       <c r="H2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -951,7 +954,7 @@
         <v>100</v>
       </c>
       <c r="H3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -977,7 +980,7 @@
         <v>101</v>
       </c>
       <c r="H4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1003,7 +1006,7 @@
         <v>102</v>
       </c>
       <c r="H5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1029,7 +1032,7 @@
         <v>103</v>
       </c>
       <c r="H6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1055,7 +1058,7 @@
         <v>101</v>
       </c>
       <c r="H7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1069,7 +1072,7 @@
         <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E8" t="s">
         <v>82</v>
@@ -1081,7 +1084,7 @@
         <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1107,7 +1110,7 @@
         <v>104</v>
       </c>
       <c r="H9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1133,7 +1136,7 @@
         <v>105</v>
       </c>
       <c r="H10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1159,7 +1162,7 @@
         <v>33</v>
       </c>
       <c r="H11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1185,7 +1188,7 @@
         <v>33</v>
       </c>
       <c r="H12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1211,7 +1214,7 @@
         <v>33</v>
       </c>
       <c r="H13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1237,7 +1240,7 @@
         <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1263,7 +1266,7 @@
         <v>106</v>
       </c>
       <c r="H15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1289,7 +1292,7 @@
         <v>107</v>
       </c>
       <c r="H16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1315,7 +1318,7 @@
         <v>33</v>
       </c>
       <c r="H17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1329,7 +1332,7 @@
         <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E18" t="s">
         <v>87</v>
@@ -1341,7 +1344,7 @@
         <v>108</v>
       </c>
       <c r="H18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1367,7 +1370,7 @@
         <v>109</v>
       </c>
       <c r="H19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1393,7 +1396,7 @@
         <v>110</v>
       </c>
       <c r="H20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1416,10 +1419,10 @@
         <v>96</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="H21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1442,10 +1445,10 @@
         <v>33</v>
       </c>
       <c r="G22" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1468,10 +1471,10 @@
         <v>33</v>
       </c>
       <c r="G23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H23" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1494,10 +1497,10 @@
         <v>33</v>
       </c>
       <c r="G24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1520,10 +1523,10 @@
         <v>33</v>
       </c>
       <c r="G25" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H25" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1546,10 +1549,10 @@
         <v>33</v>
       </c>
       <c r="G26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H26" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1575,7 +1578,7 @@
         <v>33</v>
       </c>
       <c r="H27" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1598,10 +1601,10 @@
         <v>33</v>
       </c>
       <c r="G28" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H28" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1624,10 +1627,10 @@
         <v>98</v>
       </c>
       <c r="G29" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H29" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1689,18 +1692,18 @@
         <v>99</v>
       </c>
       <c r="H2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D3" t="s">
         <v>33</v>
@@ -1712,47 +1715,47 @@
         <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D4" t="s">
         <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F4" t="s">
         <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D5" t="s">
         <v>33</v>
@@ -1767,18 +1770,18 @@
         <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D6" t="s">
         <v>33</v>
@@ -1793,18 +1796,18 @@
         <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D7" t="s">
         <v>33</v>
@@ -1819,21 +1822,21 @@
         <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E8" t="s">
         <v>33</v>
@@ -1842,15 +1845,15 @@
         <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s">
         <v>40</v>
@@ -1871,93 +1874,93 @@
         <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F10" t="s">
         <v>33</v>
       </c>
       <c r="G10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
         <v>152</v>
       </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" t="s">
-        <v>151</v>
-      </c>
       <c r="F11" t="s">
         <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D12" t="s">
         <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F12" t="s">
         <v>33</v>
       </c>
       <c r="G12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C13" t="s">
         <v>33</v>
@@ -1972,18 +1975,18 @@
         <v>33</v>
       </c>
       <c r="G13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C14" t="s">
         <v>33</v>
@@ -1998,18 +2001,18 @@
         <v>33</v>
       </c>
       <c r="G14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C15" t="s">
         <v>33</v>
@@ -2024,10 +2027,10 @@
         <v>33</v>
       </c>
       <c r="G15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2053,7 +2056,7 @@
         <v>104</v>
       </c>
       <c r="H16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
